--- a/Bases_de_datos/World_population_2020.xlsx
+++ b/Bases_de_datos/World_population_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b9dc00d60f03380/Documentos/HP 2019/DAVID_ECHEVERRIA/GITHUB/Reto_30_dias_de_graficos_R/Bases_de_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C565EB4-E7EF-498C-97E9-9A296FE59A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1C565EB4-E7EF-498C-97E9-9A296FE59A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{513EDC6B-AFF1-40F4-8770-3D1BD129AF9F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCF5CBC3-92E3-4024-868A-318A76BBEAAA}"/>
   </bookViews>
@@ -10124,7 +10124,7 @@
         <v>31255.435000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:78" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>555.98800000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:78" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>11326.616</v>
       </c>
     </row>
-    <row r="160" spans="1:78" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -40822,7 +40822,7 @@
         <v>2860.84</v>
       </c>
     </row>
-    <row r="170" spans="1:78" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>169</v>
       </c>
